--- a/krisna mandiri implant/daftar iud impla.xlsx
+++ b/krisna mandiri implant/daftar iud impla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROG GAMING\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projek\Exyz 3d engineering\Exyz3d-engineering\krisna mandiri implant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA4B773-5F1D-4135-96D4-A5CAA67BD3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B70EA3-38B8-4A2D-AC3B-4F47FA04B5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{AD359537-999C-40EB-979A-C14B2A596C15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{AD359537-999C-40EB-979A-C14B2A596C15}"/>
   </bookViews>
   <sheets>
     <sheet name="IUD KIT" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>No</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Daftar Barang IMPLANT REMOVAL KIT</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -199,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -209,19 +212,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -232,6 +228,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1357,10 +1359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17BA3E7-CD9D-41D4-9C95-FE321A43BA59}">
-  <dimension ref="A2:C14"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,14 +1372,14 @@
     <col min="3" max="3" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1388,7 +1390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1396,8 +1398,11 @@
         <v>2</v>
       </c>
       <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1406,7 +1411,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1415,7 +1420,7 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1424,7 +1429,7 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1433,7 +1438,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1442,7 +1447,7 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1451,7 +1456,7 @@
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1460,7 +1465,7 @@
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1469,7 +1474,7 @@
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1477,6 +1482,9 @@
         <v>11</v>
       </c>
       <c r="C14" s="3"/>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1490,10 +1498,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554BEA61-1242-4553-94FD-2C20E560AD92}">
-  <dimension ref="A2:C10"/>
+  <dimension ref="A2:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,77 +1511,89 @@
     <col min="3" max="3" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    <row r="5" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>4</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>5</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="3"/>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
